--- a/rmv.xlsx
+++ b/rmv.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="3" r:id="rId1"/>
+    <sheet name="Plan2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -471,10 +472,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="172" formatCode="&quot;R$&quot;\ #.##000"/>
-    <numFmt numFmtId="173" formatCode="&quot;R$&quot;\ #.##00"/>
-    <numFmt numFmtId="176" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="179" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #.##000"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #.##00"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -536,349 +537,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1286,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1374,7 +1085,7 @@
         <v>42078</v>
       </c>
       <c r="B4" s="19">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="C4" s="14">
         <v>2050</v>
@@ -1387,7 +1098,7 @@
       </c>
       <c r="G4" s="15">
         <f t="shared" si="0"/>
-        <v>2859.7200000000003</v>
+        <v>2759.7200000000003</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1405,7 +1116,7 @@
       </c>
       <c r="G5" s="15">
         <f t="shared" si="0"/>
-        <v>2759.7200000000003</v>
+        <v>2659.7200000000003</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1413,7 +1124,7 @@
         <v>42078</v>
       </c>
       <c r="C6" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>148</v>
@@ -1709,7 +1420,7 @@
         <v>42109</v>
       </c>
       <c r="B22" s="19">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="C22" s="14">
         <v>100</v>
@@ -1722,7 +1433,7 @@
       </c>
       <c r="G22" s="15">
         <f t="shared" si="0"/>
-        <v>2922.4500000000003</v>
+        <v>2822.4500000000003</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1730,7 +1441,7 @@
         <v>42109</v>
       </c>
       <c r="C23" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>148</v>
@@ -2062,7 +1773,7 @@
         <v>42139</v>
       </c>
       <c r="B41" s="19">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="C41" s="14">
         <v>100</v>
@@ -2075,7 +1786,7 @@
       </c>
       <c r="G41" s="15">
         <f t="shared" si="0"/>
-        <v>2901.1800000000003</v>
+        <v>2801.1800000000003</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2083,7 +1794,7 @@
         <v>42139</v>
       </c>
       <c r="C42" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>148</v>
@@ -2397,7 +2108,7 @@
         <v>42170</v>
       </c>
       <c r="B59" s="19">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C59" s="14">
         <v>100</v>
@@ -2410,7 +2121,7 @@
       </c>
       <c r="G59" s="15">
         <f t="shared" si="0"/>
-        <v>2699.9100000000003</v>
+        <v>2599.9100000000003</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2418,7 +2129,7 @@
         <v>42170</v>
       </c>
       <c r="C60" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>148</v>
@@ -2714,7 +2425,7 @@
         <v>42200</v>
       </c>
       <c r="B76" s="19">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C76" s="14">
         <v>100</v>
@@ -2727,7 +2438,7 @@
       </c>
       <c r="G76" s="15">
         <f t="shared" si="1"/>
-        <v>2718.6400000000003</v>
+        <v>2618.6400000000003</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -2735,7 +2446,7 @@
         <v>42200</v>
       </c>
       <c r="C77" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>148</v>
@@ -3031,7 +2742,7 @@
         <v>42231</v>
       </c>
       <c r="B93" s="19">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C93" s="14">
         <v>100</v>
@@ -3044,7 +2755,7 @@
       </c>
       <c r="G93" s="15">
         <f t="shared" si="1"/>
-        <v>2687.3700000000003</v>
+        <v>2587.3700000000003</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -3052,7 +2763,7 @@
         <v>42231</v>
       </c>
       <c r="C94" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>148</v>
@@ -3330,7 +3041,7 @@
         <v>42262</v>
       </c>
       <c r="B109" s="19">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="C109" s="14">
         <v>100</v>
@@ -3343,7 +3054,7 @@
       </c>
       <c r="G109" s="15">
         <f t="shared" si="1"/>
-        <v>2505.2400000000002</v>
+        <v>2405.2400000000002</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -3351,7 +3062,7 @@
         <v>42262</v>
       </c>
       <c r="C110" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E110" s="10" t="s">
         <v>148</v>
@@ -3611,7 +3322,7 @@
         <v>42292</v>
       </c>
       <c r="B124" s="19">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="C124" s="14">
         <v>100</v>
@@ -3624,7 +3335,7 @@
       </c>
       <c r="G124" s="15">
         <f t="shared" si="1"/>
-        <v>2507.11</v>
+        <v>2407.11</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -3632,7 +3343,7 @@
         <v>42292</v>
       </c>
       <c r="C125" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E125" s="10" t="s">
         <v>148</v>
@@ -3892,7 +3603,7 @@
         <v>42323</v>
       </c>
       <c r="B139" s="19">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="C139" s="14">
         <v>100</v>
@@ -3905,7 +3616,7 @@
       </c>
       <c r="G139" s="15">
         <f t="shared" si="2"/>
-        <v>2508.98</v>
+        <v>2408.98</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -3913,7 +3624,7 @@
         <v>42323</v>
       </c>
       <c r="C140" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E140" s="10" t="s">
         <v>148</v>
@@ -4173,7 +3884,7 @@
         <v>42353</v>
       </c>
       <c r="B154" s="19">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="C154" s="14">
         <v>100</v>
@@ -4186,7 +3897,7 @@
       </c>
       <c r="G154" s="15">
         <f t="shared" si="2"/>
-        <v>2510.85</v>
+        <v>2410.85</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -4194,7 +3905,7 @@
         <v>42353</v>
       </c>
       <c r="C155" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E155" s="10" t="s">
         <v>148</v>
@@ -4454,7 +4165,7 @@
         <v>42384</v>
       </c>
       <c r="B169" s="19">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="C169" s="14">
         <v>100</v>
@@ -4467,7 +4178,7 @@
       </c>
       <c r="G169" s="15">
         <f t="shared" si="2"/>
-        <v>2512.7199999999998</v>
+        <v>2412.7199999999998</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -4475,7 +4186,7 @@
         <v>42384</v>
       </c>
       <c r="C170" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E170" s="10" t="s">
         <v>148</v>
@@ -4735,7 +4446,7 @@
         <v>42415</v>
       </c>
       <c r="B184" s="19">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C184" s="14">
         <v>100</v>
@@ -4748,7 +4459,7 @@
       </c>
       <c r="G184" s="15">
         <f t="shared" si="2"/>
-        <v>2504.5899999999997</v>
+        <v>2404.5899999999997</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -4756,7 +4467,7 @@
         <v>42415</v>
       </c>
       <c r="C185" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E185" s="10" t="s">
         <v>148</v>
@@ -4956,14 +4667,36 @@
     <sortCondition ref="A1"/>
   </sortState>
   <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>2000</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThan">
-      <formula>2000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="9.140625" style="19"/>
+    <col min="3" max="4" width="9.140625" style="14"/>
+    <col min="5" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="9.140625" style="16"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>